--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H2">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I2">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J2">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N2">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q2">
-        <v>555.1931299712782</v>
+        <v>806.6302557730806</v>
       </c>
       <c r="R2">
-        <v>4996.738169741503</v>
+        <v>7259.672301957726</v>
       </c>
       <c r="S2">
-        <v>0.5745011577152198</v>
+        <v>0.6980532390377681</v>
       </c>
       <c r="T2">
-        <v>0.5745011577152196</v>
+        <v>0.6980532390377681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H3">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I3">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J3">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
         <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q3">
-        <v>10.10578697247511</v>
+        <v>10.60176798912111</v>
       </c>
       <c r="R3">
-        <v>90.95208275227598</v>
+        <v>95.41591190209</v>
       </c>
       <c r="S3">
-        <v>0.01045723731417694</v>
+        <v>0.009174709764934525</v>
       </c>
       <c r="T3">
-        <v>0.01045723731417693</v>
+        <v>0.009174709764934527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H4">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I4">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J4">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N4">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q4">
-        <v>11.49046506366822</v>
+        <v>2.049996272068333</v>
       </c>
       <c r="R4">
-        <v>103.414185573014</v>
+        <v>18.449966448615</v>
       </c>
       <c r="S4">
-        <v>0.01189007054555085</v>
+        <v>0.001774055123138372</v>
       </c>
       <c r="T4">
-        <v>0.01189007054555085</v>
+        <v>0.001774055123138373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H5">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I5">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J5">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N5">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q5">
-        <v>15.83540171373178</v>
+        <v>7.310581208435556</v>
       </c>
       <c r="R5">
-        <v>142.518615423586</v>
+        <v>65.79523087592</v>
       </c>
       <c r="S5">
-        <v>0.0163861116543267</v>
+        <v>0.006326535429676089</v>
       </c>
       <c r="T5">
-        <v>0.0163861116543267</v>
+        <v>0.006326535429676089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H6">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I6">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J6">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N6">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q6">
-        <v>15.09922032626911</v>
+        <v>37.31464233316444</v>
       </c>
       <c r="R6">
-        <v>135.892982936422</v>
+        <v>335.83178099848</v>
       </c>
       <c r="S6">
-        <v>0.01562432798562824</v>
+        <v>0.03229187940543717</v>
       </c>
       <c r="T6">
-        <v>0.01562432798562824</v>
+        <v>0.03229187940543717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H7">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I7">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J7">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N7">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q7">
-        <v>17.34508378885911</v>
+        <v>12.60007516688555</v>
       </c>
       <c r="R7">
-        <v>156.105754099732</v>
+        <v>113.40067650197</v>
       </c>
       <c r="S7">
-        <v>0.01794829615035503</v>
+        <v>0.01090403343962608</v>
       </c>
       <c r="T7">
-        <v>0.01794829615035502</v>
+        <v>0.01090403343962608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.415244</v>
       </c>
       <c r="I8">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J8">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N8">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q8">
-        <v>4.985256319246222</v>
+        <v>6.904142720695556</v>
       </c>
       <c r="R8">
-        <v>44.86730687321599</v>
+        <v>62.13728448626001</v>
       </c>
       <c r="S8">
-        <v>0.005158629263049841</v>
+        <v>0.005974805872290961</v>
       </c>
       <c r="T8">
-        <v>0.00515862926304984</v>
+        <v>0.005974805872290961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.415244</v>
       </c>
       <c r="I9">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J9">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
         <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q9">
-        <v>0.0907430867671111</v>
+        <v>0.09074308676711111</v>
       </c>
       <c r="R9">
-        <v>0.816687780904</v>
+        <v>0.8166877809040001</v>
       </c>
       <c r="S9">
-        <v>9.389887156034317E-05</v>
+        <v>7.852855156958902E-05</v>
       </c>
       <c r="T9">
-        <v>9.389887156034316E-05</v>
+        <v>7.852855156958902E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.415244</v>
       </c>
       <c r="I10">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J10">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N10">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q10">
-        <v>0.1031765533062222</v>
+        <v>0.01754641204933333</v>
       </c>
       <c r="R10">
-        <v>0.9285889797560002</v>
+        <v>0.157917708444</v>
       </c>
       <c r="S10">
-        <v>0.0001067647384731818</v>
+        <v>1.518456526626262E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001067647384731818</v>
+        <v>1.518456526626262E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.415244</v>
       </c>
       <c r="I11">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J11">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N11">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q11">
-        <v>0.1421911262937778</v>
+        <v>0.06257302608355556</v>
       </c>
       <c r="R11">
-        <v>1.279720136644</v>
+        <v>0.5631572347520001</v>
       </c>
       <c r="S11">
-        <v>0.0001471361266246799</v>
+        <v>5.415034115247528E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001471361266246799</v>
+        <v>5.415034115247527E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.415244</v>
       </c>
       <c r="I12">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J12">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N12">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q12">
-        <v>0.1355807186431111</v>
+        <v>0.3193850148764444</v>
       </c>
       <c r="R12">
-        <v>1.220226467788</v>
+        <v>2.874465133888</v>
       </c>
       <c r="S12">
-        <v>0.0001402958279191213</v>
+        <v>0.0002763939767185561</v>
       </c>
       <c r="T12">
-        <v>0.0001402958279191213</v>
+        <v>0.0002763939767185561</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.415244</v>
       </c>
       <c r="I13">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J13">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N13">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q13">
-        <v>0.1557470435031111</v>
+        <v>0.1078470794035555</v>
       </c>
       <c r="R13">
-        <v>1.401723391528</v>
+        <v>0.970623714632</v>
       </c>
       <c r="S13">
-        <v>0.0001611634798288821</v>
+        <v>9.333024959033245E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001611634798288821</v>
+        <v>9.333024959033245E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H14">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I14">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J14">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N14">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q14">
-        <v>58.30174930904887</v>
+        <v>96.73519591716502</v>
       </c>
       <c r="R14">
-        <v>524.7157437814399</v>
+        <v>870.6167632544851</v>
       </c>
       <c r="S14">
-        <v>0.06032931725326619</v>
+        <v>0.08371408877319185</v>
       </c>
       <c r="T14">
-        <v>0.06032931725326618</v>
+        <v>0.08371408877319184</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H15">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I15">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J15">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
         <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q15">
-        <v>1.061225412984444</v>
+        <v>1.271417847466</v>
       </c>
       <c r="R15">
-        <v>9.551028716859998</v>
+        <v>11.442760627194</v>
       </c>
       <c r="S15">
-        <v>0.001098131794944789</v>
+        <v>0.001100277779369266</v>
       </c>
       <c r="T15">
-        <v>0.001098131794944789</v>
+        <v>0.001100277779369266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H16">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I16">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J16">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N16">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q16">
-        <v>1.206632750698889</v>
+        <v>0.245845961751</v>
       </c>
       <c r="R16">
-        <v>10.85969475629</v>
+        <v>2.212613655759</v>
       </c>
       <c r="S16">
-        <v>0.0012485959836165</v>
+        <v>0.0002127536980870684</v>
       </c>
       <c r="T16">
-        <v>0.0012485959836165</v>
+        <v>0.0002127536980870684</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H17">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I17">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J17">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N17">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q17">
-        <v>1.662901738301111</v>
+        <v>0.8767220178080001</v>
       </c>
       <c r="R17">
-        <v>14.96611564471</v>
+        <v>7.890498160272</v>
       </c>
       <c r="S17">
-        <v>0.00172073270047499</v>
+        <v>0.0007587102515514473</v>
       </c>
       <c r="T17">
-        <v>0.001720732700474989</v>
+        <v>0.0007587102515514472</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H18">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I18">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J18">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N18">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q18">
-        <v>1.585594112574444</v>
+        <v>4.474961372751999</v>
       </c>
       <c r="R18">
-        <v>14.27034701316999</v>
+        <v>40.274652354768</v>
       </c>
       <c r="S18">
-        <v>0.001640736536829228</v>
+        <v>0.003872606139506376</v>
       </c>
       <c r="T18">
-        <v>0.001640736536829228</v>
+        <v>0.003872606139506376</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H19">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I19">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J19">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N19">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q19">
-        <v>1.821435951224444</v>
+        <v>1.511064990578</v>
       </c>
       <c r="R19">
-        <v>16.39292356101999</v>
+        <v>13.599584915202</v>
       </c>
       <c r="S19">
-        <v>0.001884780279497875</v>
+        <v>0.001307667055035786</v>
       </c>
       <c r="T19">
-        <v>0.001884780279497874</v>
+        <v>0.001307667055035786</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H20">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I20">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J20">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N20">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O20">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P20">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q20">
-        <v>50.30039634892089</v>
+        <v>84.00470387816779</v>
       </c>
       <c r="R20">
-        <v>452.7035671402879</v>
+        <v>756.04233490351</v>
       </c>
       <c r="S20">
-        <v>0.0520497001421549</v>
+        <v>0.07269719331363636</v>
       </c>
       <c r="T20">
-        <v>0.05204970014215489</v>
+        <v>0.07269719331363636</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H21">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I21">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J21">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N21">
         <v>1.966766</v>
       </c>
       <c r="O21">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P21">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q21">
-        <v>0.9155824571524444</v>
+        <v>1.104097415311555</v>
       </c>
       <c r="R21">
-        <v>8.240242114371998</v>
+        <v>9.936876737804001</v>
       </c>
       <c r="S21">
-        <v>0.0009474237940318833</v>
+        <v>0.0009554796283122263</v>
       </c>
       <c r="T21">
-        <v>0.0009474237940318831</v>
+        <v>0.0009554796283122265</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H22">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I22">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J22">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N22">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O22">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P22">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q22">
-        <v>1.041034039750889</v>
+        <v>0.2134922767326666</v>
       </c>
       <c r="R22">
-        <v>9.369306357758001</v>
+        <v>1.921430490594</v>
       </c>
       <c r="S22">
-        <v>0.001077238223550745</v>
+        <v>0.0001847550029473603</v>
       </c>
       <c r="T22">
-        <v>0.001077238223550745</v>
+        <v>0.0001847550029473603</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H23">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I23">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J23">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N23">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O23">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P23">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q23">
-        <v>1.434684508049111</v>
+        <v>0.7613441291057778</v>
       </c>
       <c r="R23">
-        <v>12.912160572442</v>
+        <v>6.852097161952</v>
       </c>
       <c r="S23">
-        <v>0.001484578728257939</v>
+        <v>0.0006588628823937713</v>
       </c>
       <c r="T23">
-        <v>0.001484578728257939</v>
+        <v>0.0006588628823937713</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H24">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I24">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J24">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N24">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O24">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P24">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q24">
-        <v>1.367986608570444</v>
+        <v>3.886049967854222</v>
       </c>
       <c r="R24">
-        <v>12.311879477134</v>
+        <v>34.974449710688</v>
       </c>
       <c r="S24">
-        <v>0.001415561266767287</v>
+        <v>0.003362965556658187</v>
       </c>
       <c r="T24">
-        <v>0.001415561266767286</v>
+        <v>0.003362965556658188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H25">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I25">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J25">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N25">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O25">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P25">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q25">
-        <v>1.571461428800444</v>
+        <v>1.312206646925778</v>
       </c>
       <c r="R25">
-        <v>14.143152859204</v>
+        <v>11.809859822332</v>
       </c>
       <c r="S25">
-        <v>0.001626112358770314</v>
+        <v>0.001135576174607455</v>
       </c>
       <c r="T25">
-        <v>0.001626112358770314</v>
+        <v>0.001135576174607455</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H26">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I26">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J26">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N26">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O26">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P26">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q26">
-        <v>32.30854141446045</v>
+        <v>23.45994256847612</v>
       </c>
       <c r="R26">
-        <v>290.776872730144</v>
+        <v>211.139483116285</v>
       </c>
       <c r="S26">
-        <v>0.03343213999722562</v>
+        <v>0.02030210096925959</v>
       </c>
       <c r="T26">
-        <v>0.03343213999722561</v>
+        <v>0.02030210096925959</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H27">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I27">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J27">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N27">
         <v>1.966766</v>
       </c>
       <c r="O27">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P27">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q27">
-        <v>0.5880894760762222</v>
+        <v>0.3083406137682222</v>
       </c>
       <c r="R27">
-        <v>5.292805284686</v>
+        <v>2.775065523914</v>
       </c>
       <c r="S27">
-        <v>0.0006085415445673925</v>
+        <v>0.0002668362147679609</v>
       </c>
       <c r="T27">
-        <v>0.0006085415445673924</v>
+        <v>0.0002668362147679609</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H28">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I28">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J28">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N28">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O28">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P28">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q28">
-        <v>0.6686685161254446</v>
+        <v>0.05962185829766666</v>
       </c>
       <c r="R28">
-        <v>6.018016645129002</v>
+        <v>0.536596724679</v>
       </c>
       <c r="S28">
-        <v>0.0006919228929609761</v>
+        <v>5.159641732288959E-05</v>
       </c>
       <c r="T28">
-        <v>0.0006919228929609761</v>
+        <v>5.159641732288961E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H29">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I29">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J29">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N29">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O29">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P29">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q29">
-        <v>0.9215148827745557</v>
+        <v>0.2126201119591111</v>
       </c>
       <c r="R29">
-        <v>8.293633944971001</v>
+        <v>1.913581007632</v>
       </c>
       <c r="S29">
-        <v>0.0009535625324347499</v>
+        <v>0.0001840002365090848</v>
       </c>
       <c r="T29">
-        <v>0.0009535625324347497</v>
+        <v>0.0001840002365090848</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H30">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I30">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J30">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N30">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O30">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P30">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q30">
-        <v>0.8786740305352222</v>
+        <v>1.085254811400889</v>
       </c>
       <c r="R30">
-        <v>7.908066274817</v>
+        <v>9.767293302608</v>
       </c>
       <c r="S30">
-        <v>0.0009092317979923461</v>
+        <v>0.0009391733459757914</v>
       </c>
       <c r="T30">
-        <v>0.0009092317979923459</v>
+        <v>0.0009391733459757916</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H31">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I31">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J31">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N31">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O31">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P31">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q31">
-        <v>1.009368321900222</v>
+        <v>0.3664591523291111</v>
       </c>
       <c r="R31">
-        <v>9.084314897102001</v>
+        <v>3.298132370962</v>
       </c>
       <c r="S31">
-        <v>0.001044471262680692</v>
+        <v>0.0003171316677344349</v>
       </c>
       <c r="T31">
-        <v>0.001044471262680692</v>
+        <v>0.000317131667734435</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H32">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I32">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J32">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N32">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O32">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P32">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q32">
-        <v>157.2704637593849</v>
+        <v>45.68600015500056</v>
       </c>
       <c r="R32">
-        <v>1415.434173834464</v>
+        <v>411.1740013950051</v>
       </c>
       <c r="S32">
-        <v>0.1627398802806697</v>
+        <v>0.03953640488765611</v>
       </c>
       <c r="T32">
-        <v>0.1627398802806697</v>
+        <v>0.03953640488765611</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H33">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I33">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J33">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N33">
         <v>1.966766</v>
       </c>
       <c r="O33">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P33">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q33">
-        <v>2.862682763918444</v>
+        <v>0.6004639306891112</v>
       </c>
       <c r="R33">
-        <v>25.76414487526599</v>
+        <v>5.404175376202001</v>
       </c>
       <c r="S33">
-        <v>0.002962238675625601</v>
+        <v>0.0005196380730117318</v>
       </c>
       <c r="T33">
-        <v>0.0029622386756256</v>
+        <v>0.0005196380730117318</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H34">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I34">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J34">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N34">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O34">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P34">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q34">
-        <v>3.254922785999889</v>
+        <v>0.1161078813163333</v>
       </c>
       <c r="R34">
-        <v>29.294305073999</v>
+        <v>1.044970931847</v>
       </c>
       <c r="S34">
-        <v>0.003368119682834193</v>
+        <v>0.0001004791006171728</v>
       </c>
       <c r="T34">
-        <v>0.003368119682834193</v>
+        <v>0.0001004791006171729</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H35">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I35">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J35">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N35">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O35">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P35">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q35">
-        <v>4.485720079900111</v>
+        <v>0.4140573848195556</v>
       </c>
       <c r="R35">
-        <v>40.37148071910099</v>
+        <v>3.726516463376</v>
       </c>
       <c r="S35">
-        <v>0.004641720583290251</v>
+        <v>0.0003583229076174262</v>
       </c>
       <c r="T35">
-        <v>0.00464172058329025</v>
+        <v>0.0003583229076174261</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H36">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I36">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J36">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N36">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O36">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P36">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q36">
-        <v>4.277180777147444</v>
+        <v>2.113430215660444</v>
       </c>
       <c r="R36">
-        <v>38.49462699432699</v>
+        <v>19.020871940944</v>
       </c>
       <c r="S36">
-        <v>0.004425928880560194</v>
+        <v>0.001828950497409914</v>
       </c>
       <c r="T36">
-        <v>0.004425928880560192</v>
+        <v>0.001828950497409914</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H37">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I37">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J37">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N37">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O37">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P37">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q37">
-        <v>4.913370184462444</v>
+        <v>0.7136442402295555</v>
       </c>
       <c r="R37">
-        <v>44.22033166016199</v>
+        <v>6.422798162066</v>
       </c>
       <c r="S37">
-        <v>0.005084243134282201</v>
+        <v>0.0006175836696522702</v>
       </c>
       <c r="T37">
-        <v>0.0050842431342822</v>
+        <v>0.0006175836696522702</v>
       </c>
     </row>
   </sheetData>
